--- a/artifacts/250729_bottle_expansions.xlsx
+++ b/artifacts/250729_bottle_expansions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\stef\bottle\artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B1EF56E-5B02-4CF2-BFBB-CCBE049A28AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31329C39-6943-4BDD-B94D-F646F08A190B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>Starters</t>
   </si>
@@ -62,25 +62,22 @@
     <t>CCM + AA</t>
   </si>
   <si>
-    <t>DMB, DMHB, 3HPA</t>
-  </si>
-  <si>
     <t>Paths found</t>
   </si>
   <si>
     <t>A+B</t>
   </si>
   <si>
-    <t>Mechinferred dt=98</t>
-  </si>
-  <si>
-    <t>Mechinferred dt=2</t>
-  </si>
-  <si>
     <t>Mechinformed</t>
   </si>
   <si>
-    <t>Arogenate, prephenate</t>
+    <t>DMHB, 3HPA</t>
+  </si>
+  <si>
+    <t>Mechinferred dt=13</t>
+  </si>
+  <si>
+    <t>Mechinferred dt=04</t>
   </si>
 </sst>
 </file>
@@ -407,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J14"/>
+  <dimension ref="B2:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,7 +433,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
@@ -451,7 +448,7 @@
         <v>6</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
@@ -459,7 +456,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <f>SUM(F3:G3)</f>
@@ -475,10 +472,10 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -489,11 +486,11 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D14" si="0">SUM(F4:G4)</f>
-        <v>6</v>
+        <f>SUM(F4:G4)</f>
+        <v>5</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -502,13 +499,13 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -519,23 +516,20 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D6" si="0">SUM(F5:G5)</f>
         <v>6</v>
       </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -549,15 +543,12 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
       <c r="F6">
         <v>3</v>
       </c>
@@ -565,252 +556,12 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13">
-        <v>4</v>
-      </c>
-      <c r="H13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14">
-        <v>4</v>
-      </c>
-      <c r="H14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" t="b">
         <v>1</v>
       </c>
     </row>
